--- a/mapping/CHMO_OBI.xlsx
+++ b/mapping/CHMO_OBI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="240">
   <si>
     <t>CHMO_IRI</t>
   </si>
@@ -28,6 +28,9 @@
     <t>OBI_DESC</t>
   </si>
   <si>
+    <t>OBI_DEF</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/IAO_0000030</t>
   </si>
   <si>
@@ -178,7 +181,7 @@
     <t>http://purl.obolibrary.org/obo/CHMO_0000960</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/CHMO_0002740</t>
+    <t>http://purl.obolibrary.org/obo/CHMO_0001004</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHMO_0001047</t>
@@ -217,6 +220,9 @@
     <t>http://purl.obolibrary.org/obo/CHMO_0001059</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/CHMO_0002244</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHMO_0001125</t>
   </si>
   <si>
@@ -238,15 +244,12 @@
     <t>http://purl.obolibrary.org/obo/CHMO_0001691</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/CHMO_0001694</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHMO_0001957</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/CHMO_0002166</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/CHMO_0002467</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/CHMO_0002607</t>
   </si>
   <si>
@@ -256,9 +259,6 @@
     <t>http://purl.obolibrary.org/obo/CHMO_0002808</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/CHMO_0002831</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/CHMO_0002866</t>
   </si>
   <si>
@@ -412,7 +412,7 @@
     <t>{'label': 'ion source', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0000960'}</t>
   </si>
   <si>
-    <t>{'label': 'Analyte role', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0002740'}</t>
+    <t>{'label': 'liquid chromatography', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0001004'}</t>
   </si>
   <si>
     <t>{'label': 'Centrifugation', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0001047'}</t>
@@ -451,6 +451,9 @@
     <t>{'label': 'ion detector', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0001059'}</t>
   </si>
   <si>
+    <t>{'label': 'detector', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0002244'}</t>
+  </si>
+  <si>
     <t>{'label': 'confocal microscope', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0001125'}</t>
   </si>
   <si>
@@ -472,15 +475,12 @@
     <t>{'label': 'immunoprecipitation', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0001691'}</t>
   </si>
   <si>
-    <t>{'label': 'chromatin immunoprecipitation', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0001694'}</t>
-  </si>
-  <si>
-    <t>{'label': 'flow cytometer', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0001957'}</t>
-  </si>
-  <si>
     <t>{'label': 'autoclave', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0002166'}</t>
   </si>
   <si>
+    <t>{'label': 'analyte', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0002467'}</t>
+  </si>
+  <si>
     <t>{'label': 'micromanipulator', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0002607'}</t>
   </si>
   <si>
@@ -490,9 +490,6 @@
     <t>{'label': 'gas chromatography oven', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0002808'}</t>
   </si>
   <si>
-    <t>{'label': 'material acquisition', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0002831'}</t>
-  </si>
-  <si>
     <t>{'label': 'evaporative light scattering detector', 'prefLabel': None, 'altLabel': None, 'name': 'CHMO_0002866'}</t>
   </si>
   <si>
@@ -511,72 +508,72 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000361</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0003547</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600052</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302885</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0400169</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000990</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0400115</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000940</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001122</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000049</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000038</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0302905</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000364</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000091</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001079</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000930</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/SO_0001248</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001504</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001505</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0600034</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000690</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0001112</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000275</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0600052</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0302885</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0400169</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000990</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0400115</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000940</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001122</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000049</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000038</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0302905</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000364</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001079</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000930</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/SO_0001248</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001504</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001505</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0600034</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000690</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_00001975</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0400044</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001112</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000935</t>
   </si>
   <si>
@@ -586,9 +583,6 @@
     <t>http://purl.obolibrary.org/obo/OBI_0000554</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0600010</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/OBI_0000547</t>
   </si>
   <si>
@@ -607,7 +601,7 @@
     <t>{'label': 'ion source'}</t>
   </si>
   <si>
-    <t>{'label': 'Analyte role'}</t>
+    <t>{'label': 'liquid chromatography'}</t>
   </si>
   <si>
     <t>{'label': 'Centrifugation'}</t>
@@ -646,6 +640,9 @@
     <t>{'label': 'ion detector'}</t>
   </si>
   <si>
+    <t>{'label': 'detector'}</t>
+  </si>
+  <si>
     <t>{'label': 'confocal microscope'}</t>
   </si>
   <si>
@@ -667,15 +664,12 @@
     <t>{'label': 'immunoprecipitation'}</t>
   </si>
   <si>
-    <t>{'label': 'chromatin immunoprecipitation'}</t>
-  </si>
-  <si>
-    <t>{'label': 'flow cytometer'}</t>
-  </si>
-  <si>
     <t>{'label': 'autoclave'}</t>
   </si>
   <si>
+    <t>{'label': 'analyte'}</t>
+  </si>
+  <si>
     <t>{'label': 'micromanipulator'}</t>
   </si>
   <si>
@@ -685,10 +679,61 @@
     <t>{'label': 'gas chromatography oven'}</t>
   </si>
   <si>
-    <t>{'label': 'material acquisition'}</t>
-  </si>
-  <si>
     <t>{'label': 'evaporative light scattering detector'}</t>
+  </si>
+  <si>
+    <t>['A generically dependent continuant that is about some thing. [IAO]']</t>
+  </si>
+  <si>
+    <t>['A material entity is an independent continuant that has some portion of matter as proper or improper continuant part. [BFO]']</t>
+  </si>
+  <si>
+    <t>['p is a process if p is an occurrent that has temporal proper parts and for some time t, p specifically depends on some material entity at t. [BFO]', locstr("Process, i.e., a physical entity with a temporal evolution that 'has a meaning for the ontologist'", 'en')]</t>
+  </si>
+  <si>
+    <t>['A function is a disposition that exists in virtue of the bearer’s physical make-up and this physical make-up is something the bearer possesses because it came into being, either through evolution (in the case of natural biological entities) or through intentional design (in the case of artifacts), in order to realize processes of a certain sort. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A quality is a specifically dependent continuant that, in contrast to roles and dispositions, does not require any further process in order to be realized. [BFO]']</t>
+  </si>
+  <si>
+    <t>['To say that b is a realizable entity is to say that b is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region and is of a type instances of which are realized in processes of a correlated type.´[BFO]', 'To say that b is a realizable entity is to say that b is a specifically dependent continuant that inheres in some independent continuant which is not a spatial region and is of a type instances of which are realized in processes of a correlated type. (axiom label in BFO2 Reference: [058-002])']</t>
+  </si>
+  <si>
+    <t>['A continuant is an entity that persists, endures, or continues to exist through time while maintaining its identity. [BFO]']</t>
+  </si>
+  <si>
+    <t>['b is an independent continuant if b is a continuant which is such that there is no c and no t such that b s-depends_on c at t. [BFO]']</t>
+  </si>
+  <si>
+    <t>['b is a specifically dependent continuant if b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b specifically depends on c at every time t during the course of b’s existence. [BFO]']</t>
+  </si>
+  <si>
+    <t>['b is a generically dependent continuant if b is a continuant that generically depends on one or more other entities. [BFO]']</t>
+  </si>
+  <si>
+    <t>['B is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to be and b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed. [BFO]']</t>
+  </si>
+  <si>
+    <t>['B is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up. [BFO]']</t>
+  </si>
+  <si>
+    <t>['Any constitutionally or isotopically distinct atom, molecule, ion, ion pair, radical, radical ion, complex, conformer etc., identifiable as a separately distinguishable entity. [IUPAC]']</t>
+  </si>
+  <si>
+    <t>['A processual entity that realizes a plan which is the concretization of a plan specification. [IAO]']</t>
+  </si>
+  <si>
+    <t>['B is a continuant fiat boundary if b is an immaterial entity that is of zero, one or two dimensions and does not include a spatial region as part. [BFO]']</t>
+  </si>
+  <si>
+    <t>['A directive information entity that describes an intended process endpoint. When part of a plan specification the concretization is realized in a planned process in which the bearer tries to effect the world so that the process endpoint is achieved. [IAO]']</t>
+  </si>
+  <si>
+    <t>['Material processing is a planned material process which results in physical changes in a specified input material. [OBI]']</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -1059,13 +1104,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1078,1331 +1123,1548 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
         <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>87</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
         <v>88</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>89</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>91</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
         <v>93</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>94</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>95</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E15" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>96</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>97</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>98</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>99</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>100</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>101</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E21" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>102</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>103</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>104</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E24" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>105</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>106</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>107</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E27" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>108</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E28" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>109</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E29" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>110</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E30" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>111</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>112</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>113</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E33" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>114</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E34" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>115</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E35" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
         <v>116</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E36" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
         <v>117</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C38" t="s">
         <v>118</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
         <v>119</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>120</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E40" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>121</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E41" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
         <v>122</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E42" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
         <v>123</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
         <v>124</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E44" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C45" t="s">
         <v>125</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C46" t="s">
         <v>126</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E46" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C47" t="s">
         <v>127</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E47" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>190</v>
+      </c>
+      <c r="F47" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C48" t="s">
         <v>128</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E48" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>191</v>
+      </c>
+      <c r="F48" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
         <v>129</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E49" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>192</v>
+      </c>
+      <c r="F49" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C50" t="s">
         <v>130</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E50" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>193</v>
+      </c>
+      <c r="F50" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C51" t="s">
         <v>131</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E51" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>194</v>
+      </c>
+      <c r="F51" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C52" t="s">
         <v>132</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E52" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>195</v>
+      </c>
+      <c r="F52" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C53" t="s">
         <v>133</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>196</v>
+      </c>
+      <c r="F53" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
         <v>134</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E54" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>197</v>
+      </c>
+      <c r="F54" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C55" t="s">
         <v>135</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E55" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>198</v>
+      </c>
+      <c r="F55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
         <v>136</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>199</v>
+      </c>
+      <c r="F56" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C57" t="s">
         <v>137</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E57" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>200</v>
+      </c>
+      <c r="F57" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
         <v>138</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E58" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>201</v>
+      </c>
+      <c r="F58" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
         <v>139</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E59" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>202</v>
+      </c>
+      <c r="F59" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C60" t="s">
         <v>140</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E60" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>203</v>
+      </c>
+      <c r="F60" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C61" t="s">
         <v>141</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E61" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>204</v>
+      </c>
+      <c r="F61" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C62" t="s">
         <v>142</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E62" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>205</v>
+      </c>
+      <c r="F62" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C63" t="s">
         <v>143</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E63" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>206</v>
+      </c>
+      <c r="F63" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C64" t="s">
         <v>144</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E64" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>207</v>
+      </c>
+      <c r="F64" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C65" t="s">
         <v>145</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E65" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>208</v>
+      </c>
+      <c r="F65" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C66" t="s">
         <v>146</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E66" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>209</v>
+      </c>
+      <c r="F66" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C67" t="s">
         <v>147</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E67" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>210</v>
+      </c>
+      <c r="F67" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C68" t="s">
         <v>148</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E68" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>211</v>
+      </c>
+      <c r="F68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C69" t="s">
         <v>149</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E69" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>212</v>
+      </c>
+      <c r="F69" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="s">
         <v>150</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E70" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>213</v>
+      </c>
+      <c r="F70" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C71" t="s">
         <v>151</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E71" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>214</v>
+      </c>
+      <c r="F71" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C72" t="s">
         <v>152</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E72" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>215</v>
+      </c>
+      <c r="F72" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C73" t="s">
         <v>153</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E73" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>216</v>
+      </c>
+      <c r="F73" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C74" t="s">
         <v>154</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E74" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>217</v>
+      </c>
+      <c r="F74" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C75" t="s">
         <v>155</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E75" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>218</v>
+      </c>
+      <c r="F75" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C76" t="s">
         <v>156</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E76" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>219</v>
+      </c>
+      <c r="F76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C77" t="s">
         <v>157</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E77" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>220</v>
+      </c>
+      <c r="F77" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C78" t="s">
         <v>158</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E78" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C79" t="s">
-        <v>159</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E79" t="s">
-        <v>224</v>
+        <v>221</v>
+      </c>
+      <c r="F78" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2561,8 +2823,6 @@
     <hyperlink ref="D77" r:id="rId152"/>
     <hyperlink ref="B78" r:id="rId153"/>
     <hyperlink ref="D78" r:id="rId154"/>
-    <hyperlink ref="B79" r:id="rId155"/>
-    <hyperlink ref="D79" r:id="rId156"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
